--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -16,12 +16,13 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
     <sheet name="wt_log2_optimized_expression" sheetId="19" r:id="rId9"/>
-    <sheet name="wt_sigmas" sheetId="20" r:id="rId10"/>
-    <sheet name="dcin5_log2_optimized_expression" sheetId="21" r:id="rId11"/>
+    <sheet name="dcin5_log2_optimized_expression" sheetId="20" r:id="rId10"/>
+    <sheet name="wt_sigmas" sheetId="21" r:id="rId11"/>
     <sheet name="dcin5_sigmas" sheetId="22" r:id="rId12"/>
     <sheet name="optimized_production_rates" sheetId="23" r:id="rId13"/>
     <sheet name="optimized_threshold_b" sheetId="24" r:id="rId14"/>
     <sheet name="network_optimized_weights" sheetId="25" r:id="rId15"/>
+    <sheet name="optimization_diagnostics" sheetId="26" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
   <si>
     <t>CIN5</t>
   </si>
@@ -132,13 +133,40 @@
     <t>makeGraphs</t>
   </si>
   <si>
-    <t>StandardDeviation</t>
-  </si>
-  <si>
     <t>prorate</t>
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>min LSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt SSE</t>
+  </si>
+  <si>
+    <t>dcin5 SSE</t>
   </si>
 </sst>
 </file>
@@ -815,76 +843,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -975,64 +933,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8014683855074031E-2</v>
+        <v>-9.9333548281800077E-2</v>
       </c>
       <c r="E2">
-        <v>-0.19346120135192468</v>
+        <v>-0.19586879384844316</v>
       </c>
       <c r="F2">
-        <v>-0.28623103548517437</v>
+        <v>-0.28949946197642401</v>
       </c>
       <c r="G2">
-        <v>-0.37622387951618269</v>
+        <v>-0.38012852062268365</v>
       </c>
       <c r="H2">
-        <v>-0.46334653172316692</v>
+        <v>-0.46766692419934019</v>
       </c>
       <c r="I2">
-        <v>-0.54751669645875889</v>
+        <v>-0.55203791950794634</v>
       </c>
       <c r="J2">
-        <v>-0.62866172552147115</v>
+        <v>-0.63317557217581855</v>
       </c>
       <c r="K2">
-        <v>-0.70672207231964856</v>
+        <v>-0.71102858315011508</v>
       </c>
       <c r="L2">
-        <v>-0.78164991928886218</v>
+        <v>-0.7855586458386048</v>
       </c>
       <c r="M2">
-        <v>-0.85341212650890141</v>
+        <v>-0.85674360847114694</v>
       </c>
       <c r="N2">
-        <v>-0.92198862345737553</v>
+        <v>-0.9245755345668013</v>
       </c>
       <c r="O2">
-        <v>-0.98737473491020444</v>
+        <v>-0.98906310510907813</v>
       </c>
       <c r="P2">
-        <v>-1.0495792634683514</v>
+        <v>-1.050229321567089</v>
       </c>
       <c r="Q2">
-        <v>-1.1086261422068129</v>
+        <v>-1.1081131263835171</v>
       </c>
       <c r="R2">
-        <v>-1.1645522012102762</v>
+        <v>-1.1627667704724551</v>
       </c>
       <c r="S2">
-        <v>-1.2174081740011213</v>
+        <v>-1.2142567207206496</v>
       </c>
       <c r="T2">
-        <v>-1.2672562101642735</v>
+        <v>-1.262660790852649</v>
       </c>
       <c r="U2">
-        <v>-1.3141703328433176</v>
+        <v>-1.3080684781415095</v>
       </c>
       <c r="V2">
-        <v>-1.3582338130670926</v>
+        <v>-1.350578008163194</v>
       </c>
       <c r="W2">
-        <v>-1.3995391546216971</v>
+        <v>-1.3902962113702153</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1046,64 +1004,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1573897832684542E-2</v>
+        <v>-6.2133356121438402E-2</v>
       </c>
       <c r="E3">
-        <v>-0.12002153159373057</v>
+        <v>-0.12102306748529788</v>
       </c>
       <c r="F3">
-        <v>-0.1753807124623791</v>
+        <v>-0.17671408642039158</v>
       </c>
       <c r="G3">
-        <v>-0.22770271619065743</v>
+        <v>-0.22926533259961424</v>
       </c>
       <c r="H3">
-        <v>-0.277049957534171</v>
+        <v>-0.27874713363857034</v>
       </c>
       <c r="I3">
-        <v>-0.32349641153222847</v>
+        <v>-0.32524166824731177</v>
       </c>
       <c r="J3">
-        <v>-0.36712504315474009</v>
+        <v>-0.36884016015003362</v>
       </c>
       <c r="K3">
-        <v>-0.40802784227070166</v>
+        <v>-0.40964290882844623</v>
       </c>
       <c r="L3">
-        <v>-0.4463032628374009</v>
+        <v>-0.44775651966684332</v>
       </c>
       <c r="M3">
-        <v>-0.48205602792650348</v>
+        <v>-0.48329369918335102</v>
       </c>
       <c r="N3">
-        <v>-0.51539471232829881</v>
+        <v>-0.51637066717049851</v>
       </c>
       <c r="O3">
-        <v>-0.54643146091166472</v>
+        <v>-0.54710687380838074</v>
       </c>
       <c r="P3">
-        <v>-0.57527982132818622</v>
+        <v>-0.57562270569141916</v>
       </c>
       <c r="Q3">
-        <v>-0.60205448691049401</v>
+        <v>-0.60203924294781541</v>
       </c>
       <c r="R3">
-        <v>-0.62686944677895506</v>
+        <v>-0.62647632526941788</v>
       </c>
       <c r="S3">
-        <v>-0.64983782455144889</v>
+        <v>-0.64905242112271921</v>
       </c>
       <c r="T3">
-        <v>-0.67107037227364996</v>
+        <v>-0.66988307437884642</v>
       </c>
       <c r="U3">
-        <v>-0.69067543811502097</v>
+        <v>-0.68908091557759044</v>
       </c>
       <c r="V3">
-        <v>-0.70875779603920608</v>
+        <v>-0.70675447286353077</v>
       </c>
       <c r="W3">
-        <v>-0.72541871861227303</v>
+        <v>-0.72300829512338916</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1188,64 +1146,179 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-3.7774214566452996E-2</v>
+        <v>-3.8843910635807791E-2</v>
       </c>
       <c r="E5">
-        <v>-7.3540599505980825E-2</v>
+        <v>-7.5479098007162224E-2</v>
       </c>
       <c r="F5">
-        <v>-0.10736670080506995</v>
+        <v>-0.10998170252886796</v>
       </c>
       <c r="G5">
-        <v>-0.13932188901860659</v>
+        <v>-0.1424311265348078</v>
       </c>
       <c r="H5">
-        <v>-0.16947651940165853</v>
+        <v>-0.17290875675633169</v>
       </c>
       <c r="I5">
-        <v>-0.19790198168435749</v>
+        <v>-0.20149786763119376</v>
       </c>
       <c r="J5">
-        <v>-0.22466988906616181</v>
+        <v>-0.2282824166223611</v>
       </c>
       <c r="K5">
-        <v>-0.24985209168919856</v>
+        <v>-0.25334694086509174</v>
       </c>
       <c r="L5">
-        <v>-0.27351995184046274</v>
+        <v>-0.27677550536606083</v>
       </c>
       <c r="M5">
-        <v>-0.29574435115636222</v>
+        <v>-0.29865163142636331</v>
       </c>
       <c r="N5">
-        <v>-0.31659506446882169</v>
+        <v>-0.31905741332018012</v>
       </c>
       <c r="O5">
-        <v>-0.33614078093972904</v>
+        <v>-0.33807350016971222</v>
       </c>
       <c r="P5">
-        <v>-0.35444858094015053</v>
+        <v>-0.35577838190583405</v>
       </c>
       <c r="Q5">
-        <v>-0.37158398240680923</v>
+        <v>-0.37224843226231386</v>
       </c>
       <c r="R5">
-        <v>-0.38761051828389081</v>
+        <v>-0.38755735351436177</v>
       </c>
       <c r="S5">
-        <v>-0.4025898122129884</v>
+        <v>-0.40177627802316995</v>
       </c>
       <c r="T5">
-        <v>-0.41658124897467624</v>
+        <v>-0.41497335391494455</v>
       </c>
       <c r="U5">
-        <v>-0.42964207845174529</v>
+        <v>-0.42721389620641148</v>
       </c>
       <c r="V5">
-        <v>-0.441827168294398</v>
+        <v>-0.43856009190998924</v>
       </c>
       <c r="W5">
-        <v>-0.45318912339716727</v>
+        <v>-0.44907117803922286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1255,26 +1328,35 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1282,10 +1364,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1293,10 +1384,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1306,8 +1406,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1315,6 +1424,15 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1341,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1352,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>3.1799499558866038</v>
+        <v>0.53168731722862517</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1363,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>3.9282321912394997</v>
+        <v>0.90674622953013306</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1374,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.1939933861130365</v>
+        <v>1.8804128258382475</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1385,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.99996602430476722</v>
+        <v>1.0851783098836441</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>2.4482376250421534</v>
+        <v>-4.0460473791829521E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,7 +1551,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>1.9204260079538886</v>
+        <v>-0.2639884720155341</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.3057464206381268</v>
+        <v>-0.5561044580898219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1455,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>-7.4815312085399117E-5</v>
+        <v>-6.0638170876774117E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1495,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.22979170939241786</v>
+        <v>0.2698874005033251</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1515,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.13100594593119938</v>
+        <v>0.20603459792081869</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1535,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.19345461108183795</v>
+        <v>0.54260290320603322</v>
       </c>
       <c r="E4">
-        <v>0.33410990227794174</v>
+        <v>0.61820218181117781</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1552,10 +1670,125 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-1.0000513960067972</v>
+        <v>-0.94797949347646482</v>
       </c>
       <c r="E5">
-        <v>1.000045775659278</v>
+        <v>0.63034222605195867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>2.4238920850609236E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0.59206840589068022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1.3405614348693278E-4</v>
+      </c>
+      <c r="C8">
+        <v>2.6811228697386555E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1.7460169695242181E-5</v>
+      </c>
+      <c r="C9">
+        <v>3.4920339390484376E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9.7551613930883286E-4</v>
+      </c>
+      <c r="C10">
+        <v>9.7551613930883286E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9.7700699463570961E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.0483876359853039E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2780,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2580,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2596,7 +2829,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2604,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2612,7 +2845,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2620,7 +2853,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2940,64 +3173,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8014683855074031E-2</v>
+        <v>-9.9333548281800077E-2</v>
       </c>
       <c r="E2">
-        <v>-0.19346120135192468</v>
+        <v>-0.19586879384844316</v>
       </c>
       <c r="F2">
-        <v>-0.28623103548517437</v>
+        <v>-0.28949946197642401</v>
       </c>
       <c r="G2">
-        <v>-0.37622387951618269</v>
+        <v>-0.38012852062268365</v>
       </c>
       <c r="H2">
-        <v>-0.46334653172316692</v>
+        <v>-0.46766692419934019</v>
       </c>
       <c r="I2">
-        <v>-0.54751669645875889</v>
+        <v>-0.55203791950794634</v>
       </c>
       <c r="J2">
-        <v>-0.62866172552147115</v>
+        <v>-0.63317557217581855</v>
       </c>
       <c r="K2">
-        <v>-0.70672207231964856</v>
+        <v>-0.71102858315011508</v>
       </c>
       <c r="L2">
-        <v>-0.78164991928886218</v>
+        <v>-0.7855586458386048</v>
       </c>
       <c r="M2">
-        <v>-0.85341212650890141</v>
+        <v>-0.85674360847114694</v>
       </c>
       <c r="N2">
-        <v>-0.92198862345737553</v>
+        <v>-0.9245755345668013</v>
       </c>
       <c r="O2">
-        <v>-0.98737473491020444</v>
+        <v>-0.98906310510907813</v>
       </c>
       <c r="P2">
-        <v>-1.0495792634683514</v>
+        <v>-1.050229321567089</v>
       </c>
       <c r="Q2">
-        <v>-1.1086261422068129</v>
+        <v>-1.1081131263835171</v>
       </c>
       <c r="R2">
-        <v>-1.1645522012102762</v>
+        <v>-1.1627667704724551</v>
       </c>
       <c r="S2">
-        <v>-1.2174081740011213</v>
+        <v>-1.2142567207206496</v>
       </c>
       <c r="T2">
-        <v>-1.2672562101642735</v>
+        <v>-1.262660790852649</v>
       </c>
       <c r="U2">
-        <v>-1.3141703328433176</v>
+        <v>-1.3080684781415095</v>
       </c>
       <c r="V2">
-        <v>-1.3582338130670926</v>
+        <v>-1.350578008163194</v>
       </c>
       <c r="W2">
-        <v>-1.3995391546216971</v>
+        <v>-1.3902962113702153</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -3011,64 +3244,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1573897832684542E-2</v>
+        <v>-6.2133356121438402E-2</v>
       </c>
       <c r="E3">
-        <v>-0.12002153159373057</v>
+        <v>-0.12102306748529788</v>
       </c>
       <c r="F3">
-        <v>-0.1753807124623791</v>
+        <v>-0.17671408642039158</v>
       </c>
       <c r="G3">
-        <v>-0.22770271619065743</v>
+        <v>-0.22926533259961424</v>
       </c>
       <c r="H3">
-        <v>-0.277049957534171</v>
+        <v>-0.27874713363857034</v>
       </c>
       <c r="I3">
-        <v>-0.32349641153222847</v>
+        <v>-0.32524166824731177</v>
       </c>
       <c r="J3">
-        <v>-0.36712504315474009</v>
+        <v>-0.36884016015003362</v>
       </c>
       <c r="K3">
-        <v>-0.40802784227070166</v>
+        <v>-0.40964290882844623</v>
       </c>
       <c r="L3">
-        <v>-0.4463032628374009</v>
+        <v>-0.44775651966684332</v>
       </c>
       <c r="M3">
-        <v>-0.48205602792650348</v>
+        <v>-0.48329369918335102</v>
       </c>
       <c r="N3">
-        <v>-0.51539471232829881</v>
+        <v>-0.51637066717049851</v>
       </c>
       <c r="O3">
-        <v>-0.54643146091166472</v>
+        <v>-0.54710687380838074</v>
       </c>
       <c r="P3">
-        <v>-0.57527982132818622</v>
+        <v>-0.57562270569141916</v>
       </c>
       <c r="Q3">
-        <v>-0.60205448691049401</v>
+        <v>-0.60203924294781541</v>
       </c>
       <c r="R3">
-        <v>-0.62686944677895506</v>
+        <v>-0.62647632526941788</v>
       </c>
       <c r="S3">
-        <v>-0.64983782455144889</v>
+        <v>-0.64905242112271921</v>
       </c>
       <c r="T3">
-        <v>-0.67107037227364996</v>
+        <v>-0.66988307437884642</v>
       </c>
       <c r="U3">
-        <v>-0.69067543811502097</v>
+        <v>-0.68908091557759044</v>
       </c>
       <c r="V3">
-        <v>-0.70875779603920608</v>
+        <v>-0.70675447286353077</v>
       </c>
       <c r="W3">
-        <v>-0.72541871861227303</v>
+        <v>-0.72300829512338916</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -3082,64 +3315,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.4256196480227752E-2</v>
+        <v>7.9327111240630188E-2</v>
       </c>
       <c r="E4">
-        <v>0.15578899065081131</v>
+        <v>0.14748044236036251</v>
       </c>
       <c r="F4">
-        <v>0.21688232801266005</v>
+        <v>0.20641162819401693</v>
       </c>
       <c r="G4">
-        <v>0.26929208967170415</v>
+        <v>0.25763571539076657</v>
       </c>
       <c r="H4">
-        <v>0.31439738702510389</v>
+        <v>0.30235081691756516</v>
       </c>
       <c r="I4">
-        <v>0.35330254660238958</v>
+        <v>0.34152128688634031</v>
       </c>
       <c r="J4">
-        <v>0.38690510463161043</v>
+        <v>0.37593334026504488</v>
       </c>
       <c r="K4">
-        <v>0.41594520863021101</v>
+        <v>0.40623672316347503</v>
       </c>
       <c r="L4">
-        <v>0.44103961211620069</v>
+        <v>0.43297324857748398</v>
       </c>
       <c r="M4">
-        <v>0.46270810717841815</v>
+        <v>0.45659966582105838</v>
       </c>
       <c r="N4">
-        <v>0.48139192197682545</v>
+        <v>0.4775034201890882</v>
       </c>
       <c r="O4">
-        <v>0.49746902631375289</v>
+        <v>0.49601613846463988</v>
       </c>
       <c r="P4">
-        <v>0.51126472051830629</v>
+        <v>0.51242284934245141</v>
       </c>
       <c r="Q4">
-        <v>0.52306109083493146</v>
+        <v>0.52697041123642574</v>
       </c>
       <c r="R4">
-        <v>0.53310341322391119</v>
+        <v>0.53987316396248608</v>
       </c>
       <c r="S4">
-        <v>0.54160631893551092</v>
+        <v>0.55131845415835778</v>
       </c>
       <c r="T4">
-        <v>0.54875782980162846</v>
+        <v>0.5614702361028403</v>
       </c>
       <c r="U4">
-        <v>0.55472356557222213</v>
+        <v>0.57047284192609526</v>
       </c>
       <c r="V4">
-        <v>0.55964937798147629</v>
+        <v>0.57845335265776288</v>
       </c>
       <c r="W4">
-        <v>0.56366431335437173</v>
+        <v>0.58552424163001682</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3153,64 +3386,64 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-7.2356482774856942E-2</v>
+        <v>-7.5894805247868666E-2</v>
       </c>
       <c r="E5">
-        <v>-0.14506552597724567</v>
+        <v>-0.15149080948294608</v>
       </c>
       <c r="F5">
-        <v>-0.21797830904132917</v>
+        <v>-0.22663615938235171</v>
       </c>
       <c r="G5">
-        <v>-0.29093333426782603</v>
+        <v>-0.30117798156048214</v>
       </c>
       <c r="H5">
-        <v>-0.36376225711996613</v>
+        <v>-0.37496542648953984</v>
       </c>
       <c r="I5">
-        <v>-0.4362929042855101</v>
+        <v>-0.44785085550933745</v>
       </c>
       <c r="J5">
-        <v>-0.50835332014188783</v>
+        <v>-0.51969187215247259</v>
       </c>
       <c r="K5">
-        <v>-0.57977346344406178</v>
+        <v>-0.59035202411078969</v>
       </c>
       <c r="L5">
-        <v>-0.65038792164327452</v>
+        <v>-0.65970214758698231</v>
       </c>
       <c r="M5">
-        <v>-0.72003682722569129</v>
+        <v>-0.72762086518692781</v>
       </c>
       <c r="N5">
-        <v>-0.78856770596960091</v>
+        <v>-0.79399548313876378</v>
       </c>
       <c r="O5">
-        <v>-0.85583600828294215</v>
+        <v>-0.85872241672739147</v>
       </c>
       <c r="P5">
-        <v>-0.92170640711341623</v>
+        <v>-0.92170776323431169</v>
       </c>
       <c r="Q5">
-        <v>-0.98605316919747388</v>
+        <v>-0.98286768680511916</v>
       </c>
       <c r="R5">
-        <v>-1.0487610767785591</v>
+        <v>-1.0421287158515982</v>
       </c>
       <c r="S5">
-        <v>-1.1097257289448945</v>
+        <v>-1.0994280645029504</v>
       </c>
       <c r="T5">
-        <v>-1.1688541598021127</v>
+        <v>-1.154713665362247</v>
       </c>
       <c r="U5">
-        <v>-1.2260650740057732</v>
+        <v>-1.2079443846014539</v>
       </c>
       <c r="V5">
-        <v>-1.2812891751681439</v>
+        <v>-1.2590897903421738</v>
       </c>
       <c r="W5">
-        <v>-1.3344692921698629</v>
+        <v>-1.3081302059363975</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
   <si>
     <t>CIN5</t>
   </si>
@@ -52,27 +52,18 @@
     <t>StandardName</t>
   </si>
   <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
     <t>YOR028C</t>
   </si>
   <si>
     <t>YPR104C</t>
   </si>
   <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
@@ -124,21 +112,9 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
-  </si>
-  <si>
     <t>prorate</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -167,16 +143,50 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -216,38 +226,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,192 +668,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -843,232 +829,223 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.9333548281800077E-2</v>
       </c>
       <c r="D2">
-        <v>-9.9333548281800077E-2</v>
+        <v>-0.19586879384844316</v>
       </c>
       <c r="E2">
-        <v>-0.19586879384844316</v>
+        <v>-0.28949946197642401</v>
       </c>
       <c r="F2">
-        <v>-0.28949946197642401</v>
+        <v>-0.38012852062268365</v>
       </c>
       <c r="G2">
-        <v>-0.38012852062268365</v>
+        <v>-0.46766692419934019</v>
       </c>
       <c r="H2">
-        <v>-0.46766692419934019</v>
+        <v>-0.55203791950794634</v>
       </c>
       <c r="I2">
-        <v>-0.55203791950794634</v>
+        <v>-0.63317557217581855</v>
       </c>
       <c r="J2">
-        <v>-0.63317557217581855</v>
+        <v>-0.71102858315011508</v>
       </c>
       <c r="K2">
-        <v>-0.71102858315011508</v>
+        <v>-0.7855586458386048</v>
       </c>
       <c r="L2">
-        <v>-0.7855586458386048</v>
+        <v>-0.85674360847114694</v>
       </c>
       <c r="M2">
-        <v>-0.85674360847114694</v>
+        <v>-0.9245755345668013</v>
       </c>
       <c r="N2">
-        <v>-0.9245755345668013</v>
+        <v>-0.98906310510907813</v>
       </c>
       <c r="O2">
-        <v>-0.98906310510907813</v>
+        <v>-1.050229321567089</v>
       </c>
       <c r="P2">
-        <v>-1.050229321567089</v>
+        <v>-1.1081131263835171</v>
       </c>
       <c r="Q2">
-        <v>-1.1081131263835171</v>
+        <v>-1.1627667704724551</v>
       </c>
       <c r="R2">
-        <v>-1.1627667704724551</v>
+        <v>-1.2142567207206496</v>
       </c>
       <c r="S2">
-        <v>-1.2142567207206496</v>
+        <v>-1.262660790852649</v>
       </c>
       <c r="T2">
-        <v>-1.262660790852649</v>
+        <v>-1.3080684781415095</v>
       </c>
       <c r="U2">
-        <v>-1.3080684781415095</v>
+        <v>-1.350578008163194</v>
       </c>
       <c r="V2">
-        <v>-1.350578008163194</v>
-      </c>
-      <c r="W2">
         <v>-1.3902962113702153</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-6.2133356121438402E-2</v>
       </c>
       <c r="D3">
-        <v>-6.2133356121438402E-2</v>
+        <v>-0.12102306748529788</v>
       </c>
       <c r="E3">
-        <v>-0.12102306748529788</v>
+        <v>-0.17671408642039158</v>
       </c>
       <c r="F3">
-        <v>-0.17671408642039158</v>
+        <v>-0.22926533259961424</v>
       </c>
       <c r="G3">
-        <v>-0.22926533259961424</v>
+        <v>-0.27874713363857034</v>
       </c>
       <c r="H3">
-        <v>-0.27874713363857034</v>
+        <v>-0.32524166824731177</v>
       </c>
       <c r="I3">
-        <v>-0.32524166824731177</v>
+        <v>-0.36884016015003362</v>
       </c>
       <c r="J3">
-        <v>-0.36884016015003362</v>
+        <v>-0.40964290882844623</v>
       </c>
       <c r="K3">
-        <v>-0.40964290882844623</v>
+        <v>-0.44775651966684332</v>
       </c>
       <c r="L3">
-        <v>-0.44775651966684332</v>
+        <v>-0.48329369918335102</v>
       </c>
       <c r="M3">
-        <v>-0.48329369918335102</v>
+        <v>-0.51637066717049851</v>
       </c>
       <c r="N3">
-        <v>-0.51637066717049851</v>
+        <v>-0.54710687380838074</v>
       </c>
       <c r="O3">
-        <v>-0.54710687380838074</v>
+        <v>-0.57562270569141916</v>
       </c>
       <c r="P3">
-        <v>-0.57562270569141916</v>
+        <v>-0.60203924294781541</v>
       </c>
       <c r="Q3">
-        <v>-0.60203924294781541</v>
+        <v>-0.62647632526941788</v>
       </c>
       <c r="R3">
-        <v>-0.62647632526941788</v>
+        <v>-0.64905242112271921</v>
       </c>
       <c r="S3">
-        <v>-0.64905242112271921</v>
+        <v>-0.66988307437884642</v>
       </c>
       <c r="T3">
-        <v>-0.66988307437884642</v>
+        <v>-0.68908091557759044</v>
       </c>
       <c r="U3">
-        <v>-0.68908091557759044</v>
+        <v>-0.70675447286353077</v>
       </c>
       <c r="V3">
-        <v>-0.70675447286353077</v>
-      </c>
-      <c r="W3">
         <v>-0.72300829512338916</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1131,78 +1108,72 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-3.8843910635807791E-2</v>
       </c>
       <c r="D5">
-        <v>-3.8843910635807791E-2</v>
+        <v>-7.5479098007162224E-2</v>
       </c>
       <c r="E5">
-        <v>-7.5479098007162224E-2</v>
+        <v>-0.10998170252886796</v>
       </c>
       <c r="F5">
-        <v>-0.10998170252886796</v>
+        <v>-0.1424311265348078</v>
       </c>
       <c r="G5">
-        <v>-0.1424311265348078</v>
+        <v>-0.17290875675633169</v>
       </c>
       <c r="H5">
-        <v>-0.17290875675633169</v>
+        <v>-0.20149786763119376</v>
       </c>
       <c r="I5">
-        <v>-0.20149786763119376</v>
+        <v>-0.2282824166223611</v>
       </c>
       <c r="J5">
-        <v>-0.2282824166223611</v>
+        <v>-0.25334694086509174</v>
       </c>
       <c r="K5">
-        <v>-0.25334694086509174</v>
+        <v>-0.27677550536606083</v>
       </c>
       <c r="L5">
-        <v>-0.27677550536606083</v>
+        <v>-0.29865163142636331</v>
       </c>
       <c r="M5">
-        <v>-0.29865163142636331</v>
+        <v>-0.31905741332018012</v>
       </c>
       <c r="N5">
-        <v>-0.31905741332018012</v>
+        <v>-0.33807350016971222</v>
       </c>
       <c r="O5">
-        <v>-0.33807350016971222</v>
+        <v>-0.35577838190583405</v>
       </c>
       <c r="P5">
-        <v>-0.35577838190583405</v>
+        <v>-0.37224843226231386</v>
       </c>
       <c r="Q5">
-        <v>-0.37224843226231386</v>
+        <v>-0.38755735351436177</v>
       </c>
       <c r="R5">
-        <v>-0.38755735351436177</v>
+        <v>-0.40177627802316995</v>
       </c>
       <c r="S5">
-        <v>-0.40177627802316995</v>
+        <v>-0.41497335391494455</v>
       </c>
       <c r="T5">
-        <v>-0.41497335391494455</v>
+        <v>-0.42721389620641148</v>
       </c>
       <c r="U5">
-        <v>-0.42721389620641148</v>
+        <v>-0.43856009190998924</v>
       </c>
       <c r="V5">
-        <v>-0.43856009190998924</v>
-      </c>
-      <c r="W5">
         <v>-0.44907117803922286</v>
       </c>
     </row>
@@ -1213,63 +1184,57 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1277,15 +1242,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1297,16 +1259,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1315,9 +1274,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1328,63 +1284,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1392,15 +1342,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1412,16 +1359,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1430,9 +1374,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1459,15 +1400,15 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0.53168731722862517</v>
@@ -1475,10 +1416,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0.90674622953013306</v>
@@ -1486,7 +1427,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1497,7 +1438,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1513,66 +1454,51 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>-4.0460473791829521E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>-0.2639884720155341</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>-0.5561044580898219</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>-6.0638170876774117E-2</v>
       </c>
     </row>
@@ -1586,20 +1512,20 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1610,7 +1536,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.2698874005033251</v>
@@ -1627,7 +1553,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1686,22 +1612,22 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>2.4238920850609236E-5</v>
@@ -1709,7 +1635,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.59206840589068022</v>
@@ -1717,7 +1643,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1725,7 +1651,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1586</v>
@@ -1733,23 +1659,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1.3405614348693278E-4</v>
@@ -1760,7 +1686,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1.7460169695242181E-5</v>
@@ -1798,159 +1724,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1962,20 +1855,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -1984,7 +1877,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -1993,16 +1886,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -2010,17 +1903,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -2029,7 +1919,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -2038,7 +1928,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -2047,7 +1937,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -2055,16 +1945,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -2073,7 +1960,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -2082,7 +1969,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -2091,7 +1978,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -2099,16 +1986,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -2117,7 +2001,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -2126,7 +2010,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -2135,7 +2019,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -2143,16 +2027,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -2161,7 +2042,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -2170,7 +2051,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -2179,7 +2060,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -2187,40 +2068,37 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2229,285 +2107,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2517,9 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2544,14 +2405,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2562,7 +2423,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2579,7 +2440,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2640,9 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2666,14 +2525,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2701,7 +2560,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2718,7 +2577,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2768,7 +2627,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2780,7 +2639,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2790,22 +2649,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2826,7 +2685,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2834,7 +2693,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2842,7 +2701,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2850,57 +2709,57 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -2914,21 +2773,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -2936,10 +2795,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -2947,8 +2806,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
+      <c r="A17" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3026,20 +2885,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3047,7 +2909,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3076,373 +2938,358 @@
       <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.9333548281800077E-2</v>
       </c>
       <c r="D2">
-        <v>-9.9333548281800077E-2</v>
+        <v>-0.19586879384844316</v>
       </c>
       <c r="E2">
-        <v>-0.19586879384844316</v>
+        <v>-0.28949946197642401</v>
       </c>
       <c r="F2">
-        <v>-0.28949946197642401</v>
+        <v>-0.38012852062268365</v>
       </c>
       <c r="G2">
-        <v>-0.38012852062268365</v>
+        <v>-0.46766692419934019</v>
       </c>
       <c r="H2">
-        <v>-0.46766692419934019</v>
+        <v>-0.55203791950794634</v>
       </c>
       <c r="I2">
-        <v>-0.55203791950794634</v>
+        <v>-0.63317557217581855</v>
       </c>
       <c r="J2">
-        <v>-0.63317557217581855</v>
+        <v>-0.71102858315011508</v>
       </c>
       <c r="K2">
-        <v>-0.71102858315011508</v>
+        <v>-0.7855586458386048</v>
       </c>
       <c r="L2">
-        <v>-0.7855586458386048</v>
+        <v>-0.85674360847114694</v>
       </c>
       <c r="M2">
-        <v>-0.85674360847114694</v>
+        <v>-0.9245755345668013</v>
       </c>
       <c r="N2">
-        <v>-0.9245755345668013</v>
+        <v>-0.98906310510907813</v>
       </c>
       <c r="O2">
-        <v>-0.98906310510907813</v>
+        <v>-1.050229321567089</v>
       </c>
       <c r="P2">
-        <v>-1.050229321567089</v>
+        <v>-1.1081131263835171</v>
       </c>
       <c r="Q2">
-        <v>-1.1081131263835171</v>
+        <v>-1.1627667704724551</v>
       </c>
       <c r="R2">
-        <v>-1.1627667704724551</v>
+        <v>-1.2142567207206496</v>
       </c>
       <c r="S2">
-        <v>-1.2142567207206496</v>
+        <v>-1.262660790852649</v>
       </c>
       <c r="T2">
-        <v>-1.262660790852649</v>
+        <v>-1.3080684781415095</v>
       </c>
       <c r="U2">
-        <v>-1.3080684781415095</v>
+        <v>-1.350578008163194</v>
       </c>
       <c r="V2">
-        <v>-1.350578008163194</v>
-      </c>
-      <c r="W2">
         <v>-1.3902962113702153</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-6.2133356121438402E-2</v>
       </c>
       <c r="D3">
-        <v>-6.2133356121438402E-2</v>
+        <v>-0.12102306748529788</v>
       </c>
       <c r="E3">
-        <v>-0.12102306748529788</v>
+        <v>-0.17671408642039158</v>
       </c>
       <c r="F3">
-        <v>-0.17671408642039158</v>
+        <v>-0.22926533259961424</v>
       </c>
       <c r="G3">
-        <v>-0.22926533259961424</v>
+        <v>-0.27874713363857034</v>
       </c>
       <c r="H3">
-        <v>-0.27874713363857034</v>
+        <v>-0.32524166824731177</v>
       </c>
       <c r="I3">
-        <v>-0.32524166824731177</v>
+        <v>-0.36884016015003362</v>
       </c>
       <c r="J3">
-        <v>-0.36884016015003362</v>
+        <v>-0.40964290882844623</v>
       </c>
       <c r="K3">
-        <v>-0.40964290882844623</v>
+        <v>-0.44775651966684332</v>
       </c>
       <c r="L3">
-        <v>-0.44775651966684332</v>
+        <v>-0.48329369918335102</v>
       </c>
       <c r="M3">
-        <v>-0.48329369918335102</v>
+        <v>-0.51637066717049851</v>
       </c>
       <c r="N3">
-        <v>-0.51637066717049851</v>
+        <v>-0.54710687380838074</v>
       </c>
       <c r="O3">
-        <v>-0.54710687380838074</v>
+        <v>-0.57562270569141916</v>
       </c>
       <c r="P3">
-        <v>-0.57562270569141916</v>
+        <v>-0.60203924294781541</v>
       </c>
       <c r="Q3">
-        <v>-0.60203924294781541</v>
+        <v>-0.62647632526941788</v>
       </c>
       <c r="R3">
-        <v>-0.62647632526941788</v>
+        <v>-0.64905242112271921</v>
       </c>
       <c r="S3">
-        <v>-0.64905242112271921</v>
+        <v>-0.66988307437884642</v>
       </c>
       <c r="T3">
-        <v>-0.66988307437884642</v>
+        <v>-0.68908091557759044</v>
       </c>
       <c r="U3">
-        <v>-0.68908091557759044</v>
+        <v>-0.70675447286353077</v>
       </c>
       <c r="V3">
-        <v>-0.70675447286353077</v>
-      </c>
-      <c r="W3">
         <v>-0.72300829512338916</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.9327111240630188E-2</v>
       </c>
       <c r="D4">
-        <v>7.9327111240630188E-2</v>
+        <v>0.14748044236036251</v>
       </c>
       <c r="E4">
-        <v>0.14748044236036251</v>
+        <v>0.20641162819401693</v>
       </c>
       <c r="F4">
-        <v>0.20641162819401693</v>
+        <v>0.25763571539076657</v>
       </c>
       <c r="G4">
-        <v>0.25763571539076657</v>
+        <v>0.30235081691756516</v>
       </c>
       <c r="H4">
-        <v>0.30235081691756516</v>
+        <v>0.34152128688634031</v>
       </c>
       <c r="I4">
-        <v>0.34152128688634031</v>
+        <v>0.37593334026504488</v>
       </c>
       <c r="J4">
-        <v>0.37593334026504488</v>
+        <v>0.40623672316347503</v>
       </c>
       <c r="K4">
-        <v>0.40623672316347503</v>
+        <v>0.43297324857748398</v>
       </c>
       <c r="L4">
-        <v>0.43297324857748398</v>
+        <v>0.45659966582105838</v>
       </c>
       <c r="M4">
-        <v>0.45659966582105838</v>
+        <v>0.4775034201890882</v>
       </c>
       <c r="N4">
-        <v>0.4775034201890882</v>
+        <v>0.49601613846463988</v>
       </c>
       <c r="O4">
-        <v>0.49601613846463988</v>
+        <v>0.51242284934245141</v>
       </c>
       <c r="P4">
-        <v>0.51242284934245141</v>
+        <v>0.52697041123642574</v>
       </c>
       <c r="Q4">
-        <v>0.52697041123642574</v>
+        <v>0.53987316396248608</v>
       </c>
       <c r="R4">
-        <v>0.53987316396248608</v>
+        <v>0.55131845415835778</v>
       </c>
       <c r="S4">
-        <v>0.55131845415835778</v>
+        <v>0.5614702361028403</v>
       </c>
       <c r="T4">
-        <v>0.5614702361028403</v>
+        <v>0.57047284192609526</v>
       </c>
       <c r="U4">
-        <v>0.57047284192609526</v>
+        <v>0.57845335265776288</v>
       </c>
       <c r="V4">
-        <v>0.57845335265776288</v>
-      </c>
-      <c r="W4">
         <v>0.58552424163001682</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-7.5894805247868666E-2</v>
       </c>
       <c r="D5">
-        <v>-7.5894805247868666E-2</v>
+        <v>-0.15149080948294608</v>
       </c>
       <c r="E5">
-        <v>-0.15149080948294608</v>
+        <v>-0.22663615938235171</v>
       </c>
       <c r="F5">
-        <v>-0.22663615938235171</v>
+        <v>-0.30117798156048214</v>
       </c>
       <c r="G5">
-        <v>-0.30117798156048214</v>
+        <v>-0.37496542648953984</v>
       </c>
       <c r="H5">
-        <v>-0.37496542648953984</v>
+        <v>-0.44785085550933745</v>
       </c>
       <c r="I5">
-        <v>-0.44785085550933745</v>
+        <v>-0.51969187215247259</v>
       </c>
       <c r="J5">
-        <v>-0.51969187215247259</v>
+        <v>-0.59035202411078969</v>
       </c>
       <c r="K5">
-        <v>-0.59035202411078969</v>
+        <v>-0.65970214758698231</v>
       </c>
       <c r="L5">
-        <v>-0.65970214758698231</v>
+        <v>-0.72762086518692781</v>
       </c>
       <c r="M5">
-        <v>-0.72762086518692781</v>
+        <v>-0.79399548313876378</v>
       </c>
       <c r="N5">
-        <v>-0.79399548313876378</v>
+        <v>-0.85872241672739147</v>
       </c>
       <c r="O5">
-        <v>-0.85872241672739147</v>
+        <v>-0.92170776323431169</v>
       </c>
       <c r="P5">
-        <v>-0.92170776323431169</v>
+        <v>-0.98286768680511916</v>
       </c>
       <c r="Q5">
-        <v>-0.98286768680511916</v>
+        <v>-1.0421287158515982</v>
       </c>
       <c r="R5">
-        <v>-1.0421287158515982</v>
+        <v>-1.0994280645029504</v>
       </c>
       <c r="S5">
-        <v>-1.0994280645029504</v>
+        <v>-1.154713665362247</v>
       </c>
       <c r="T5">
-        <v>-1.154713665362247</v>
+        <v>-1.2079443846014539</v>
       </c>
       <c r="U5">
-        <v>-1.2079443846014539</v>
+        <v>-1.2590897903421738</v>
       </c>
       <c r="V5">
-        <v>-1.2590897903421738</v>
-      </c>
-      <c r="W5">
         <v>-1.3081302059363975</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -46,18 +46,6 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -76,18 +64,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -110,9 +92,6 @@
   </si>
   <si>
     <t>dcin5</t>
-  </si>
-  <si>
-    <t>prorate</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -682,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -693,7 +672,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -702,7 +681,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -839,7 +818,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -907,7 +886,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -975,7 +954,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1194,7 +1173,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1211,7 +1190,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6.7986997775525911E-17</v>
@@ -1228,7 +1207,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3.3993498887762956E-17</v>
@@ -1294,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1311,7 +1290,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6.7986997775525911E-17</v>
@@ -1328,7 +1307,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3.3993498887762956E-17</v>
@@ -1383,76 +1362,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>0.53168731722862517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0.90674622953013306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1.8804128258382475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1.0851783098836441</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1464,15 +1373,70 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.53168731722862517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.90674622953013306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1.8804128258382475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1.0851783098836441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>-4.0460473791829521E-3</v>
@@ -1480,7 +1444,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>-0.2639884720155341</v>
@@ -1511,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1519,13 +1483,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1536,7 +1500,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.2698874005033251</v>
@@ -1553,7 +1517,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1611,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -1619,15 +1583,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>2.4238920850609236E-5</v>
@@ -1635,7 +1599,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0.59206840589068022</v>
@@ -1643,7 +1607,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1651,7 +1615,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1586</v>
@@ -1659,23 +1623,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1.3405614348693278E-4</v>
@@ -1686,7 +1650,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1.7460169695242181E-5</v>
@@ -1739,15 +1703,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1755,7 +1719,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1865,7 +1829,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1907,7 +1871,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="10">
         <v>-0.37633430629205178</v>
@@ -1948,7 +1912,7 @@
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10">
         <v>-0.22771865423983556</v>
@@ -2117,7 +2081,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2159,7 +2123,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9">
         <v>-0.37633430629205178</v>
@@ -2200,7 +2164,7 @@
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9">
         <v>-0.22771865423983556</v>
@@ -2406,13 +2370,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2423,7 +2387,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2440,7 +2404,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2526,13 +2490,13 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2560,7 +2524,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2577,7 +2541,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2649,22 +2613,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2685,7 +2649,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2693,7 +2657,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2701,7 +2665,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2709,7 +2673,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2717,7 +2681,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2725,7 +2689,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2733,7 +2697,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2741,7 +2705,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -2749,7 +2713,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>0</v>
@@ -2757,7 +2721,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2774,18 +2738,18 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7">
         <v>3</v>
@@ -2796,7 +2760,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -2807,7 +2771,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2893,15 +2857,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2909,7 +2873,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2955,7 +2919,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3023,7 +2987,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3091,7 +3055,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2602,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2681,10 +2684,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1434,7 @@
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,15 +1478,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2373,7 +2371,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2493,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2605,7 +2603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2684,7 +2682,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2692,7 +2690,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2700,7 +2698,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2724,7 +2722,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2774,7 +2772,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2853,17 +2851,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -148,10 +148,13 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -173,6 +176,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -182,6 +186,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1478,13 +1483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2371,7 +2376,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2491,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2601,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2681,24 +2686,24 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>38</v>
+      <c r="A8" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>33</v>
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2706,15 +2711,15 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>0</v>
@@ -2722,119 +2727,127 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -118,12 +118,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>wt SSE</t>
-  </si>
-  <si>
-    <t>dcin5 SSE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>L_curve</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
   </si>
 </sst>
 </file>
@@ -669,10 +669,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -826,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1181,7 +1181,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1381,10 +1381,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,10 +1436,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1489,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1581,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1637,10 +1637,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1709,10 +1709,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2087,7 +2087,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2376,7 +2376,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2496,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2608,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2871,10 +2871,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2933,7 +2933,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +76,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -328,6 +330,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -669,10 +674,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -826,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1181,7 +1186,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1281,7 +1286,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1381,10 +1386,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,10 +1441,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1489,7 +1494,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1581,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1589,15 +1594,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>2.4238920850609236E-5</v>
@@ -1605,7 +1610,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0.59206840589068022</v>
@@ -1613,7 +1618,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1621,7 +1626,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1586</v>
@@ -1629,18 +1634,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1709,10 +1714,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1835,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2087,7 +2092,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2376,7 +2381,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2496,7 +2501,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2606,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2617,27 +2622,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2645,7 +2638,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2653,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +2654,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2669,7 +2662,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2677,7 +2670,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2685,57 +2678,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2750,20 +2743,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2774,80 +2767,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>33</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2871,10 +2853,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2933,7 +2915,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="15278" tabRatio="644" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -27,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -162,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -238,8 +243,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,20 +648,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -664,7 +669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -672,7 +677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -680,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +694,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -698,54 +703,54 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
     </row>
   </sheetData>
@@ -762,19 +767,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -842,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -850,67 +855,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-9.9333548281800077E-2</v>
+        <v>-9.9333548281800105E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.19586879384844316</v>
+        <v>-0.195868793848443</v>
       </c>
       <c r="E2" s="2">
         <v>-0.28949946197642401</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.38012852062268365</v>
+        <v>-0.38012852062268399</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.46766692419934019</v>
+        <v>-0.46766692419933997</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.55203791950794634</v>
+        <v>-0.55203791950794601</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.63317557217581855</v>
+        <v>-0.63317557217581899</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.71102858315011508</v>
+        <v>-0.71102858315011497</v>
       </c>
       <c r="K2" s="2">
-        <v>-0.7855586458386048</v>
+        <v>-0.78555864583860502</v>
       </c>
       <c r="L2" s="2">
         <v>-0.85674360847114694</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.9245755345668013</v>
+        <v>-0.92457553456680097</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.98906310510907813</v>
+        <v>-0.98906310510907802</v>
       </c>
       <c r="O2" s="2">
-        <v>-1.050229321567089</v>
+        <v>-1.0502293215670899</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.1081131263835171</v>
+        <v>-1.10811312638352</v>
       </c>
       <c r="Q2" s="2">
-        <v>-1.1627667704724551</v>
+        <v>-1.16276677047246</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.2142567207206496</v>
+        <v>-1.2142567207206501</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.262660790852649</v>
+        <v>-1.2626607908526499</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.3080684781415095</v>
+        <v>-1.3080684781415099</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.350578008163194</v>
+        <v>-1.35057800816319</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.3902962113702153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.39029621137022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -921,64 +926,64 @@
         <v>-6.2133356121438402E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.12102306748529788</v>
+        <v>-0.12102306748529799</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.17671408642039158</v>
+        <v>-0.17671408642039199</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.22926533259961424</v>
+        <v>-0.22926533259961401</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.27874713363857034</v>
+        <v>-0.27874713363857001</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.32524166824731177</v>
+        <v>-0.32524166824731199</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.36884016015003362</v>
+        <v>-0.36884016015003401</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.40964290882844623</v>
+        <v>-0.40964290882844601</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.44775651966684332</v>
+        <v>-0.44775651966684299</v>
       </c>
       <c r="L3" s="2">
         <v>-0.48329369918335102</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.51637066717049851</v>
+        <v>-0.51637066717049895</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.54710687380838074</v>
+        <v>-0.54710687380838097</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.57562270569141916</v>
+        <v>-0.57562270569141905</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.60203924294781541</v>
+        <v>-0.60203924294781497</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.62647632526941788</v>
+        <v>-0.62647632526941799</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.64905242112271921</v>
+        <v>-0.64905242112271899</v>
       </c>
       <c r="S3" s="2">
-        <v>-0.66988307437884642</v>
+        <v>-0.66988307437884598</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.68908091557759044</v>
+        <v>-0.68908091557758999</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.70675447286353077</v>
+        <v>-0.70675447286353099</v>
       </c>
       <c r="V3" s="2">
-        <v>-0.72300829512338916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.72300829512338904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1054,64 +1059,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-3.8843910635807791E-2</v>
+        <v>-3.8843910635807798E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-7.5479098007162224E-2</v>
+        <v>-7.5479098007162196E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.10998170252886796</v>
+        <v>-0.10998170252886801</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.1424311265348078</v>
+        <v>-0.14243112653480799</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.17290875675633169</v>
+        <v>-0.17290875675633199</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.20149786763119376</v>
+        <v>-0.20149786763119401</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.2282824166223611</v>
+        <v>-0.22828241662236101</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.25334694086509174</v>
+        <v>-0.25334694086509202</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.27677550536606083</v>
+        <v>-0.27677550536606099</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.29865163142636331</v>
+        <v>-0.29865163142636297</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.31905741332018012</v>
+        <v>-0.31905741332018001</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.33807350016971222</v>
+        <v>-0.33807350016971199</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.35577838190583405</v>
+        <v>-0.355778381905834</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.37224843226231386</v>
+        <v>-0.37224843226231402</v>
       </c>
       <c r="Q5" s="2">
-        <v>-0.38755735351436177</v>
+        <v>-0.38755735351436199</v>
       </c>
       <c r="R5" s="2">
-        <v>-0.40177627802316995</v>
+        <v>-0.40177627802317001</v>
       </c>
       <c r="S5" s="2">
-        <v>-0.41497335391494455</v>
+        <v>-0.414973353914945</v>
       </c>
       <c r="T5" s="2">
-        <v>-0.42721389620641148</v>
+        <v>-0.42721389620641098</v>
       </c>
       <c r="U5" s="2">
-        <v>-0.43856009190998924</v>
+        <v>-0.43856009190998901</v>
       </c>
       <c r="V5" s="2">
-        <v>-0.44907117803922286</v>
+        <v>-0.44907117803922297</v>
       </c>
     </row>
   </sheetData>
@@ -1125,19 +1130,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1154,15 +1159,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1171,12 +1176,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1188,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1233,19 +1238,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1262,15 +1267,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1279,12 +1284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1296,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1341,19 +1346,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1361,36 +1366,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>0.53168731722862517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.53168731722862494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>0.90674622953013306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.90674622953013295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>1.8804128258382475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1.88041282583825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>1.0851783098836441</v>
+        <v>1.0851783098836401</v>
       </c>
     </row>
   </sheetData>
@@ -1404,19 +1409,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1424,36 +1429,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>-4.0460473791829521E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-4.0460473791829503E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>-0.2639884720155341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-0.26398847201553399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.5561044580898219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.55610445808982201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>-6.0638170876774117E-2</v>
+        <v>-6.0638170876774103E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1467,19 +1472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1496,12 +1501,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>0.2698874005033251</v>
+        <v>0.26988740050332499</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1513,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20603459792081869</v>
+        <v>0.20603459792081899</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1530,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1541,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.54260290320603322</v>
+        <v>0.54260290320603299</v>
       </c>
       <c r="E4" s="2">
-        <v>0.61820218181117781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.61820218181117803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1558,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.94797949347646482</v>
+        <v>-0.94797949347646504</v>
       </c>
       <c r="E5" s="2">
-        <v>0.63034222605195867</v>
+        <v>0.630342226051959</v>
       </c>
     </row>
   </sheetData>
@@ -1575,19 +1580,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1595,31 +1600,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>2.4238920850609236E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2.4238920850609199E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>0.59206840589068022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.59206840589067999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.2133358649639599E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1627,12 +1632,12 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1643,48 +1648,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>1.3405614348693278E-4</v>
+        <v>1.3405614348693299E-4</v>
       </c>
       <c r="C8" s="2">
-        <v>2.6811228697386555E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2.6811228697386599E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>1.7460169695242181E-5</v>
+        <v>1.7460169695242201E-5</v>
       </c>
       <c r="C9" s="2">
-        <v>3.4920339390484376E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>3.4920339390484403E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>9.7551613930883286E-4</v>
+        <v>9.7551613930883297E-4</v>
       </c>
       <c r="C10" s="2">
-        <v>9.7551613930883286E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>9.7551613930883297E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>9.7700699463570961E-4</v>
+        <v>9.7700699463571005E-4</v>
       </c>
       <c r="C11" s="2">
-        <v>1.0483876359853039E-3</v>
+        <v>1.0483876359853E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1698,21 +1703,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1720,7 +1725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1752,43 +1757,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1805,19 +1810,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="16384" width="10.5859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1840,10 +1845,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1859,195 +1864,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -2065,19 +2070,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2100,10 +2105,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -2119,89 +2124,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2242,92 +2247,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -2344,34 +2349,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.29296875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2405,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2470,34 +2475,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.29296875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2531,7 +2536,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2565,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2613,20 +2618,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="21.1171875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2690,7 +2695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2698,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2706,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -2714,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2722,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2752,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -2772,7 +2777,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="2">
         <v>0.4</v>
@@ -2781,10 +2786,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="2">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="2">
         <v>0.8</v>
@@ -2799,13 +2804,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="2">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="2">
         <v>1.3</v>
       </c>
       <c r="P16" s="2">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="2">
         <v>1.5</v>
@@ -2814,13 +2819,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="2">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="2">
         <v>1.8</v>
       </c>
       <c r="U16" s="2">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="2">
         <v>2</v>
@@ -2840,19 +2845,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2860,7 +2865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2868,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2876,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2892,10 +2897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -2910,19 +2915,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2990,7 +2995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2998,67 +3003,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-9.9333548281800077E-2</v>
+        <v>-9.9333548281800105E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.19586879384844316</v>
+        <v>-0.195868793848443</v>
       </c>
       <c r="E2" s="2">
         <v>-0.28949946197642401</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.38012852062268365</v>
+        <v>-0.38012852062268399</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.46766692419934019</v>
+        <v>-0.46766692419933997</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.55203791950794634</v>
+        <v>-0.55203791950794601</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.63317557217581855</v>
+        <v>-0.63317557217581899</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.71102858315011508</v>
+        <v>-0.71102858315011497</v>
       </c>
       <c r="K2" s="2">
-        <v>-0.7855586458386048</v>
+        <v>-0.78555864583860502</v>
       </c>
       <c r="L2" s="2">
         <v>-0.85674360847114694</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.9245755345668013</v>
+        <v>-0.92457553456680097</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.98906310510907813</v>
+        <v>-0.98906310510907802</v>
       </c>
       <c r="O2" s="2">
-        <v>-1.050229321567089</v>
+        <v>-1.0502293215670899</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.1081131263835171</v>
+        <v>-1.10811312638352</v>
       </c>
       <c r="Q2" s="2">
-        <v>-1.1627667704724551</v>
+        <v>-1.16276677047246</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.2142567207206496</v>
+        <v>-1.2142567207206501</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.262660790852649</v>
+        <v>-1.2626607908526499</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.3080684781415095</v>
+        <v>-1.3080684781415099</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.350578008163194</v>
+        <v>-1.35057800816319</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.3902962113702153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.39029621137022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3069,64 +3074,64 @@
         <v>-6.2133356121438402E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.12102306748529788</v>
+        <v>-0.12102306748529799</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.17671408642039158</v>
+        <v>-0.17671408642039199</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.22926533259961424</v>
+        <v>-0.22926533259961401</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.27874713363857034</v>
+        <v>-0.27874713363857001</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.32524166824731177</v>
+        <v>-0.32524166824731199</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.36884016015003362</v>
+        <v>-0.36884016015003401</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.40964290882844623</v>
+        <v>-0.40964290882844601</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.44775651966684332</v>
+        <v>-0.44775651966684299</v>
       </c>
       <c r="L3" s="2">
         <v>-0.48329369918335102</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.51637066717049851</v>
+        <v>-0.51637066717049895</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.54710687380838074</v>
+        <v>-0.54710687380838097</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.57562270569141916</v>
+        <v>-0.57562270569141905</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.60203924294781541</v>
+        <v>-0.60203924294781497</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.62647632526941788</v>
+        <v>-0.62647632526941799</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.64905242112271921</v>
+        <v>-0.64905242112271899</v>
       </c>
       <c r="S3" s="2">
-        <v>-0.66988307437884642</v>
+        <v>-0.66988307437884598</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.68908091557759044</v>
+        <v>-0.68908091557758999</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.70675447286353077</v>
+        <v>-0.70675447286353099</v>
       </c>
       <c r="V3" s="2">
-        <v>-0.72300829512338916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.72300829512338904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3134,67 +3139,67 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>7.9327111240630188E-2</v>
+        <v>7.9327111240630202E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.14748044236036251</v>
+        <v>0.14748044236036301</v>
       </c>
       <c r="E4" s="2">
-        <v>0.20641162819401693</v>
+        <v>0.20641162819401701</v>
       </c>
       <c r="F4" s="2">
-        <v>0.25763571539076657</v>
+        <v>0.25763571539076702</v>
       </c>
       <c r="G4" s="2">
-        <v>0.30235081691756516</v>
+        <v>0.30235081691756499</v>
       </c>
       <c r="H4" s="2">
-        <v>0.34152128688634031</v>
+        <v>0.34152128688633998</v>
       </c>
       <c r="I4" s="2">
-        <v>0.37593334026504488</v>
+        <v>0.37593334026504499</v>
       </c>
       <c r="J4" s="2">
-        <v>0.40623672316347503</v>
+        <v>0.40623672316347498</v>
       </c>
       <c r="K4" s="2">
         <v>0.43297324857748398</v>
       </c>
       <c r="L4" s="2">
-        <v>0.45659966582105838</v>
+        <v>0.45659966582105799</v>
       </c>
       <c r="M4" s="2">
-        <v>0.4775034201890882</v>
+        <v>0.47750342018908798</v>
       </c>
       <c r="N4" s="2">
-        <v>0.49601613846463988</v>
+        <v>0.49601613846463999</v>
       </c>
       <c r="O4" s="2">
-        <v>0.51242284934245141</v>
+        <v>0.51242284934245097</v>
       </c>
       <c r="P4" s="2">
-        <v>0.52697041123642574</v>
+        <v>0.52697041123642596</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.53987316396248608</v>
+        <v>0.53987316396248597</v>
       </c>
       <c r="R4" s="2">
-        <v>0.55131845415835778</v>
+        <v>0.55131845415835801</v>
       </c>
       <c r="S4" s="2">
-        <v>0.5614702361028403</v>
+        <v>0.56147023610283997</v>
       </c>
       <c r="T4" s="2">
-        <v>0.57047284192609526</v>
+        <v>0.57047284192609504</v>
       </c>
       <c r="U4" s="2">
-        <v>0.57845335265776288</v>
+        <v>0.57845335265776299</v>
       </c>
       <c r="V4" s="2">
-        <v>0.58552424163001682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.58552424163001704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3202,64 +3207,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-7.5894805247868666E-2</v>
+        <v>-7.5894805247868694E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.15149080948294608</v>
+        <v>-0.15149080948294599</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.22663615938235171</v>
+        <v>-0.22663615938235199</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.30117798156048214</v>
+        <v>-0.30117798156048198</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.37496542648953984</v>
+        <v>-0.37496542648954001</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.44785085550933745</v>
+        <v>-0.44785085550933701</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.51969187215247259</v>
+        <v>-0.51969187215247303</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.59035202411078969</v>
+        <v>-0.59035202411079002</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.65970214758698231</v>
+        <v>-0.65970214758698198</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.72762086518692781</v>
+        <v>-0.72762086518692803</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.79399548313876378</v>
+        <v>-0.793995483138764</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.85872241672739147</v>
+        <v>-0.85872241672739102</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.92170776323431169</v>
+        <v>-0.92170776323431203</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.98286768680511916</v>
+        <v>-0.98286768680511905</v>
       </c>
       <c r="Q5" s="2">
-        <v>-1.0421287158515982</v>
+        <v>-1.0421287158515999</v>
       </c>
       <c r="R5" s="2">
-        <v>-1.0994280645029504</v>
+        <v>-1.0994280645029499</v>
       </c>
       <c r="S5" s="2">
-        <v>-1.154713665362247</v>
+        <v>-1.1547136653622501</v>
       </c>
       <c r="T5" s="2">
-        <v>-1.2079443846014539</v>
+        <v>-1.2079443846014499</v>
       </c>
       <c r="U5" s="2">
-        <v>-1.2590897903421738</v>
+        <v>-1.2590897903421701</v>
       </c>
       <c r="V5" s="2">
-        <v>-1.3081302059363975</v>
+        <v>-1.3081302059363999</v>
       </c>
     </row>
   </sheetData>
